--- a/Resources/regression results.xlsx
+++ b/Resources/regression results.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janssen VR 2\Penn_DS_BC\UPENN\Project_4-Group_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e7cb72b1a048b4d/Desktop/Data Science Bootcamp/Projects/Project 4/Project_4-Group_1/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D2C061-AD3A-4F00-B43A-18532FDDB02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{22D2C061-AD3A-4F00-B43A-18532FDDB02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269FE6C9-0333-452E-A220-1D4D890BCD5A}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{58A401A9-D6E0-4094-8908-79C7B918D204}"/>
+    <workbookView xWindow="3915" yWindow="2550" windowWidth="21615" windowHeight="18330" activeTab="3" xr2:uid="{58A401A9-D6E0-4094-8908-79C7B918D204}"/>
   </bookViews>
   <sheets>
     <sheet name="Training | Testing" sheetId="1" r:id="rId1"/>
     <sheet name="Recall | Precision" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Recall | Precision'!$A$1:$C$11</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -86,6 +88,42 @@
   </si>
   <si>
     <t>Precision Ex-Neut</t>
+  </si>
+  <si>
+    <t>Training Score</t>
+  </si>
+  <si>
+    <t>Testing Score</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Test_Size</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>including neutrals</t>
+  </si>
+  <si>
+    <t>excluding neutrals</t>
+  </si>
+  <si>
+    <t>Extreme Trees</t>
+  </si>
+  <si>
+    <t>Averaged</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Training - Ex Neutral</t>
+  </si>
+  <si>
+    <t>Testing - Ex Neutral</t>
   </si>
 </sst>
 </file>
@@ -3167,7 +3205,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3347,7 +3385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A93F610-2EBA-436A-A1D9-3776E4C278DB}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3546,4 +3584,1231 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0849AC72-80B0-4C84-A9B7-1CAE8A9C27CA}">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.99969440799999998</v>
+      </c>
+      <c r="C2">
+        <v>0.85258172899999995</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>0.85368195199999997</v>
+      </c>
+      <c r="F2">
+        <v>0.85310645900000004</v>
+      </c>
+      <c r="G2">
+        <v>0.6</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.99961802899999996</v>
+      </c>
+      <c r="C3">
+        <v>0.85762297600000004</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>0.85813744000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.85715590600000002</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.99979627199999999</v>
+      </c>
+      <c r="C4">
+        <v>0.85548426499999997</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>0.856088089</v>
+      </c>
+      <c r="F4">
+        <v>0.85550943999999995</v>
+      </c>
+      <c r="G4">
+        <v>0.6</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.99961802899999996</v>
+      </c>
+      <c r="C5">
+        <v>0.85762297600000004</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>0.85754953300000003</v>
+      </c>
+      <c r="F5">
+        <v>0.85662812399999999</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.99739204299999995</v>
+      </c>
+      <c r="C6">
+        <v>0.69780769600000003</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0.69371174499999999</v>
+      </c>
+      <c r="F6">
+        <v>0.70469989700000002</v>
+      </c>
+      <c r="G6">
+        <v>0.6</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.99786208200000004</v>
+      </c>
+      <c r="C7">
+        <v>0.70365654</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>0.69883590500000003</v>
+      </c>
+      <c r="F7">
+        <v>0.71415541599999999</v>
+      </c>
+      <c r="G7">
+        <v>0.8</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.997816594</v>
+      </c>
+      <c r="C8">
+        <v>0.70053670499999998</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0.69645532200000004</v>
+      </c>
+      <c r="F8">
+        <v>0.70749880899999995</v>
+      </c>
+      <c r="G8">
+        <v>0.6</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0.99754366800000005</v>
+      </c>
+      <c r="C9">
+        <v>0.71202474100000002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>0.708180645</v>
+      </c>
+      <c r="F9">
+        <v>0.71839061000000004</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>0.99959254399999997</v>
+      </c>
+      <c r="C10">
+        <v>0.84815154299999995</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0.84838665999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.847761875</v>
+      </c>
+      <c r="G10">
+        <v>0.6</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>0.99954163500000004</v>
+      </c>
+      <c r="C11">
+        <v>0.86128933699999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>0.86150507700000001</v>
+      </c>
+      <c r="F11">
+        <v>0.86123321399999997</v>
+      </c>
+      <c r="G11">
+        <v>0.8</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0.99969440799999998</v>
+      </c>
+      <c r="C12">
+        <v>0.85258172899999995</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>0.85316662600000004</v>
+      </c>
+      <c r="F12">
+        <v>0.85224590499999997</v>
+      </c>
+      <c r="G12">
+        <v>0.6</v>
+      </c>
+      <c r="H12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0.99961802899999996</v>
+      </c>
+      <c r="C13">
+        <v>0.86739993900000001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>0.86790738700000003</v>
+      </c>
+      <c r="F13">
+        <v>0.86737162499999998</v>
+      </c>
+      <c r="G13">
+        <v>0.8</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.99799854399999999</v>
+      </c>
+      <c r="C14">
+        <v>0.70317474800000002</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>0.69939302999999997</v>
+      </c>
+      <c r="F14">
+        <v>0.710370206</v>
+      </c>
+      <c r="G14">
+        <v>0.6</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0.99731623000000003</v>
+      </c>
+      <c r="C15">
+        <v>0.70274695300000001</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>0.69771594400000003</v>
+      </c>
+      <c r="F15">
+        <v>0.711182482</v>
+      </c>
+      <c r="G15">
+        <v>0.8</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>0.99799854399999999</v>
+      </c>
+      <c r="C16">
+        <v>0.70772309700000002</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>0.70111137800000001</v>
+      </c>
+      <c r="F16">
+        <v>0.71289883499999995</v>
+      </c>
+      <c r="G16">
+        <v>0.6</v>
+      </c>
+      <c r="H16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.99763464300000004</v>
+      </c>
+      <c r="C17">
+        <v>0.71184282300000001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0.70837084500000003</v>
+      </c>
+      <c r="F17">
+        <v>0.71984589399999999</v>
+      </c>
+      <c r="G17">
+        <v>0.8</v>
+      </c>
+      <c r="H17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>0.929306305</v>
+      </c>
+      <c r="C18">
+        <v>0.863275283</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>0.86379731000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.86251787800000002</v>
+      </c>
+      <c r="G18">
+        <v>0.6</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>0.93177998500000003</v>
+      </c>
+      <c r="C19">
+        <v>0.86373357799999995</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>0.86367359399999999</v>
+      </c>
+      <c r="F19">
+        <v>0.86338425500000004</v>
+      </c>
+      <c r="G19">
+        <v>0.8</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>0.93429764699999995</v>
+      </c>
+      <c r="C20">
+        <v>0.86403910799999994</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>0.86424105699999998</v>
+      </c>
+      <c r="F20">
+        <v>0.86366944800000001</v>
+      </c>
+      <c r="G20">
+        <v>0.6</v>
+      </c>
+      <c r="H20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>0.93109243699999999</v>
+      </c>
+      <c r="C21">
+        <v>0.869233119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>0.86909545300000002</v>
+      </c>
+      <c r="F21">
+        <v>0.86890081799999996</v>
+      </c>
+      <c r="G21">
+        <v>0.8</v>
+      </c>
+      <c r="H21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.82563076199999996</v>
+      </c>
+      <c r="C22">
+        <v>0.68243427599999995</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>0.67289781900000001</v>
+      </c>
+      <c r="F22">
+        <v>0.70026827000000003</v>
+      </c>
+      <c r="G22">
+        <v>0.6</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>0.81695778699999999</v>
+      </c>
+      <c r="C23">
+        <v>0.68710205599999996</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>0.67821881399999995</v>
+      </c>
+      <c r="F23">
+        <v>0.70571102100000005</v>
+      </c>
+      <c r="G23">
+        <v>0.8</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0.82599466300000002</v>
+      </c>
+      <c r="C24">
+        <v>0.68070590399999997</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>0.66991966999999997</v>
+      </c>
+      <c r="F24">
+        <v>0.70048327600000004</v>
+      </c>
+      <c r="G24">
+        <v>0.6</v>
+      </c>
+      <c r="H24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>0.81964155699999997</v>
+      </c>
+      <c r="C25">
+        <v>0.690376569</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>0.682392569</v>
+      </c>
+      <c r="F25">
+        <v>0.70600888500000003</v>
+      </c>
+      <c r="G25">
+        <v>0.8</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.94601201999999995</v>
+      </c>
+      <c r="C26">
+        <v>0.85013748899999997</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>0.84787893199999997</v>
+      </c>
+      <c r="F26">
+        <v>0.85243380000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.6</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>0.93957219300000006</v>
+      </c>
+      <c r="C27">
+        <v>0.85395661499999997</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>0.85188581799999996</v>
+      </c>
+      <c r="F27">
+        <v>0.85495106200000004</v>
+      </c>
+      <c r="G27">
+        <v>0.8</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>0.80543425499999999</v>
+      </c>
+      <c r="C28">
+        <v>0.62075866499999999</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>0.59418965300000004</v>
+      </c>
+      <c r="F28">
+        <v>0.68545631699999998</v>
+      </c>
+      <c r="G28">
+        <v>0.6</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>0.79271288200000001</v>
+      </c>
+      <c r="C29">
+        <v>0.61506276199999999</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>0.59131249299999999</v>
+      </c>
+      <c r="F29">
+        <v>0.68955641899999998</v>
+      </c>
+      <c r="G29">
+        <v>0.8</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>0.99949067899999999</v>
+      </c>
+      <c r="C30">
+        <v>0.85151237400000002</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>0.85246281899999998</v>
+      </c>
+      <c r="F30">
+        <v>0.85145680599999995</v>
+      </c>
+      <c r="G30">
+        <v>0.6</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>0.99954163500000004</v>
+      </c>
+      <c r="C31">
+        <v>0.85059578400000002</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>0.851412485</v>
+      </c>
+      <c r="F31">
+        <v>0.85078077600000002</v>
+      </c>
+      <c r="G31">
+        <v>0.8</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>0.99938881499999999</v>
+      </c>
+      <c r="C32">
+        <v>0.84692942299999996</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>0.84781397700000005</v>
+      </c>
+      <c r="F32">
+        <v>0.84709913000000003</v>
+      </c>
+      <c r="G32">
+        <v>0.6</v>
+      </c>
+      <c r="H32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>0.99954163500000004</v>
+      </c>
+      <c r="C33">
+        <v>0.85273449400000001</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>0.85285050100000004</v>
+      </c>
+      <c r="F33">
+        <v>0.85300209199999999</v>
+      </c>
+      <c r="G33">
+        <v>0.8</v>
+      </c>
+      <c r="H33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>0.99769529400000001</v>
+      </c>
+      <c r="C34">
+        <v>0.69535158699999999</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>0.68678632100000003</v>
+      </c>
+      <c r="F34">
+        <v>0.71244202300000004</v>
+      </c>
+      <c r="G34">
+        <v>0.6</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>0.99745269299999995</v>
+      </c>
+      <c r="C35">
+        <v>0.69601600900000005</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>0.68860754899999999</v>
+      </c>
+      <c r="F35">
+        <v>0.70726916299999998</v>
+      </c>
+      <c r="G35">
+        <v>0.8</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>0.99775594400000001</v>
+      </c>
+      <c r="C36">
+        <v>0.69671609199999995</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>0.68879808899999995</v>
+      </c>
+      <c r="F36">
+        <v>0.71166273000000002</v>
+      </c>
+      <c r="G36">
+        <v>0.6</v>
+      </c>
+      <c r="H36">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>0.99768013099999997</v>
+      </c>
+      <c r="C37">
+        <v>0.69201382600000005</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>0.68165647200000001</v>
+      </c>
+      <c r="F37">
+        <v>0.70565300200000003</v>
+      </c>
+      <c r="G37">
+        <v>0.8</v>
+      </c>
+      <c r="H37">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <f>AVERAGE(B22:B25)</f>
+        <v>0.82205619225000004</v>
+      </c>
+      <c r="C41">
+        <f>AVERAGE(C22:C25)</f>
+        <v>0.68515470125</v>
+      </c>
+      <c r="D41">
+        <f>AVERAGE(B18:B21)</f>
+        <v>0.93161909349999994</v>
+      </c>
+      <c r="E41">
+        <f>AVERAGE(C18:C21)</f>
+        <v>0.86507027199999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <f>AVERAGE(B34:B37)</f>
+        <v>0.99764601549999998</v>
+      </c>
+      <c r="C42">
+        <f>AVERAGE(C34:C37)</f>
+        <v>0.6950243785000001</v>
+      </c>
+      <c r="D42">
+        <f>AVERAGE(B30:B33)</f>
+        <v>0.99949069099999999</v>
+      </c>
+      <c r="E42">
+        <f>AVERAGE(C30:C33)</f>
+        <v>0.85044301875000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <f>AVERAGE(B14:B17)</f>
+        <v>0.99773699025000007</v>
+      </c>
+      <c r="C43">
+        <f>AVERAGE(C14:C17)</f>
+        <v>0.70637190525000004</v>
+      </c>
+      <c r="D43">
+        <f>AVERAGE(B10:B13)</f>
+        <v>0.99961165399999996</v>
+      </c>
+      <c r="E43">
+        <f>AVERAGE(C10:C13)</f>
+        <v>0.85735563699999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <f>AVERAGE(B6:B9)</f>
+        <v>0.99765359674999998</v>
+      </c>
+      <c r="C44">
+        <f>AVERAGE(C6:C9)</f>
+        <v>0.70350642050000001</v>
+      </c>
+      <c r="D44">
+        <f>AVERAGE(B2:B5)</f>
+        <v>0.99968168449999995</v>
+      </c>
+      <c r="E44">
+        <f>AVERAGE(C2:C5)</f>
+        <v>0.85582798650000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <f>AVERAGE(B28:B29)</f>
+        <v>0.7990735685</v>
+      </c>
+      <c r="C45">
+        <f>AVERAGE(C28:C29)</f>
+        <v>0.61791071349999993</v>
+      </c>
+      <c r="D45">
+        <f>AVERAGE(B26:B27)</f>
+        <v>0.9427921065</v>
+      </c>
+      <c r="E45">
+        <f>AVERAGE(C26:C27)</f>
+        <v>0.85204705199999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
+    <sortCondition ref="A2:A37"/>
+    <sortCondition ref="D2:D37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B14FB7A-17DB-4BBB-9B59-8B9C53CE2D5C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.82205619225000004</v>
+      </c>
+      <c r="C2">
+        <v>0.68515470125</v>
+      </c>
+      <c r="D2">
+        <v>0.93161909349999994</v>
+      </c>
+      <c r="E2">
+        <v>0.86507027199999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.99764601549999998</v>
+      </c>
+      <c r="C3">
+        <v>0.6950243785000001</v>
+      </c>
+      <c r="D3">
+        <v>0.99949069099999999</v>
+      </c>
+      <c r="E3">
+        <v>0.85044301875000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.99773699025000007</v>
+      </c>
+      <c r="C4">
+        <v>0.70637190525000004</v>
+      </c>
+      <c r="D4">
+        <v>0.99961165399999996</v>
+      </c>
+      <c r="E4">
+        <v>0.85735563699999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.99765359674999998</v>
+      </c>
+      <c r="C5">
+        <v>0.70350642050000001</v>
+      </c>
+      <c r="D5">
+        <v>0.99968168449999995</v>
+      </c>
+      <c r="E5">
+        <v>0.85582798650000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.7990735685</v>
+      </c>
+      <c r="C6">
+        <v>0.61791071349999993</v>
+      </c>
+      <c r="D6">
+        <v>0.9427921065</v>
+      </c>
+      <c r="E6">
+        <v>0.85204705199999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resources/regression results.xlsx
+++ b/Resources/regression results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e7cb72b1a048b4d/Desktop/Data Science Bootcamp/Projects/Project 4/Project_4-Group_1/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{22D2C061-AD3A-4F00-B43A-18532FDDB02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269FE6C9-0333-452E-A220-1D4D890BCD5A}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{22D2C061-AD3A-4F00-B43A-18532FDDB02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE58757B-FECF-47AF-8536-FE4C2B0DD384}"/>
   <bookViews>
-    <workbookView xWindow="3915" yWindow="2550" windowWidth="21615" windowHeight="18330" activeTab="3" xr2:uid="{58A401A9-D6E0-4094-8908-79C7B918D204}"/>
+    <workbookView xWindow="10380" yWindow="1290" windowWidth="21615" windowHeight="18330" activeTab="3" xr2:uid="{58A401A9-D6E0-4094-8908-79C7B918D204}"/>
   </bookViews>
   <sheets>
     <sheet name="Training | Testing" sheetId="1" r:id="rId1"/>
@@ -2905,6 +2905,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3205,7 +3209,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3635,19 +3639,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.99969440799999998</v>
+        <v>0.79993888199999996</v>
       </c>
       <c r="C2">
-        <v>0.85258172899999995</v>
+        <v>0.79911396300000004</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>0.85368195199999997</v>
+        <v>0.80095455599999998</v>
       </c>
       <c r="F2">
-        <v>0.85310645900000004</v>
+        <v>0.81301614600000005</v>
       </c>
       <c r="G2">
         <v>0.6</v>
@@ -3661,19 +3665,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.99961802899999996</v>
+        <v>0.80687547699999995</v>
       </c>
       <c r="C3">
-        <v>0.85762297600000004</v>
+        <v>0.79529483700000003</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>0.85813744000000003</v>
+        <v>0.80334107399999999</v>
       </c>
       <c r="F3">
-        <v>0.85715590600000002</v>
+        <v>0.81057146000000002</v>
       </c>
       <c r="G3">
         <v>0.8</v>
@@ -3687,19 +3691,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.99979627199999999</v>
+        <v>0.88387491100000004</v>
       </c>
       <c r="C4">
-        <v>0.85548426499999997</v>
+        <v>0.84204094100000004</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>0.856088089</v>
+        <v>0.84236604000000004</v>
       </c>
       <c r="F4">
-        <v>0.85550943999999995</v>
+        <v>0.84198392799999999</v>
       </c>
       <c r="G4">
         <v>0.6</v>
@@ -3713,19 +3717,19 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.99961802899999996</v>
+        <v>0.87265087900000005</v>
       </c>
       <c r="C5">
-        <v>0.85762297600000004</v>
+        <v>0.844179652</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>0.85754953300000003</v>
+        <v>0.84460265099999998</v>
       </c>
       <c r="F5">
-        <v>0.85662812399999999</v>
+        <v>0.844270666</v>
       </c>
       <c r="G5">
         <v>0.8</v>
@@ -3739,19 +3743,19 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.99739204299999995</v>
+        <v>0.65550703499999996</v>
       </c>
       <c r="C6">
-        <v>0.69780769600000003</v>
+        <v>0.64868552700000004</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>0.69371174499999999</v>
+        <v>0.62398873300000002</v>
       </c>
       <c r="F6">
-        <v>0.70469989700000002</v>
+        <v>0.69603926999999999</v>
       </c>
       <c r="G6">
         <v>0.6</v>
@@ -3765,19 +3769,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.99786208200000004</v>
+        <v>0.65483988400000004</v>
       </c>
       <c r="C7">
-        <v>0.70365654</v>
+        <v>0.64871748200000001</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>0.69883590500000003</v>
+        <v>0.62809066800000002</v>
       </c>
       <c r="F7">
-        <v>0.71415541599999999</v>
+        <v>0.70273717800000002</v>
       </c>
       <c r="G7">
         <v>0.8</v>
@@ -3791,19 +3795,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.997816594</v>
+        <v>0.71221494399999996</v>
       </c>
       <c r="C8">
-        <v>0.70053670499999998</v>
+        <v>0.67342854500000005</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>0.69645532200000004</v>
+        <v>0.65923400200000004</v>
       </c>
       <c r="F8">
-        <v>0.70749880899999995</v>
+        <v>0.70020222200000004</v>
       </c>
       <c r="G8">
         <v>0.6</v>
@@ -3817,19 +3821,19 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.99754366800000005</v>
+        <v>0.71488355199999998</v>
       </c>
       <c r="C9">
-        <v>0.71202474100000002</v>
+        <v>0.68819355999999998</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>0.708180645</v>
+        <v>0.67313860800000003</v>
       </c>
       <c r="F9">
-        <v>0.71839061000000004</v>
+        <v>0.71168019999999999</v>
       </c>
       <c r="G9">
         <v>0.8</v>
@@ -4654,19 +4658,19 @@
       </c>
       <c r="B44">
         <f>AVERAGE(B6:B9)</f>
-        <v>0.99765359674999998</v>
+        <v>0.68436135374999996</v>
       </c>
       <c r="C44">
-        <f>AVERAGE(C6:C9)</f>
-        <v>0.70350642050000001</v>
+        <f>AVERAGE(B6:B9)</f>
+        <v>0.68436135374999996</v>
       </c>
       <c r="D44">
         <f>AVERAGE(B2:B5)</f>
-        <v>0.99968168449999995</v>
+        <v>0.84083503724999997</v>
       </c>
       <c r="E44">
-        <f>AVERAGE(C2:C5)</f>
-        <v>0.85582798650000003</v>
+        <f>AVERAGE(B2:B5)</f>
+        <v>0.84083503724999997</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4704,7 +4708,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4724,7 +4728,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -4741,7 +4745,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -4758,7 +4762,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -4775,7 +4779,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -4792,7 +4796,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6">

--- a/Resources/regression results.xlsx
+++ b/Resources/regression results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e7cb72b1a048b4d/Desktop/Data Science Bootcamp/Projects/Project 4/Project_4-Group_1/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{22D2C061-AD3A-4F00-B43A-18532FDDB02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE58757B-FECF-47AF-8536-FE4C2B0DD384}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{22D2C061-AD3A-4F00-B43A-18532FDDB02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A538740-6837-4080-B3A5-9AA1BA1BF448}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="1290" windowWidth="21615" windowHeight="18330" activeTab="3" xr2:uid="{58A401A9-D6E0-4094-8908-79C7B918D204}"/>
+    <workbookView xWindow="4890" yWindow="1680" windowWidth="21615" windowHeight="18330" activeTab="3" xr2:uid="{58A401A9-D6E0-4094-8908-79C7B918D204}"/>
   </bookViews>
   <sheets>
     <sheet name="Training | Testing" sheetId="1" r:id="rId1"/>
@@ -3594,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0849AC72-80B0-4C84-A9B7-1CAE8A9C27CA}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:E45"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4708,7 +4708,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4783,16 +4783,16 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.99765359674999998</v>
+        <v>0.68436135374999996</v>
       </c>
       <c r="C5">
-        <v>0.70350642050000001</v>
+        <v>0.68436135374999996</v>
       </c>
       <c r="D5">
-        <v>0.99968168449999995</v>
+        <v>0.84083503724999997</v>
       </c>
       <c r="E5">
-        <v>0.85582798650000003</v>
+        <v>0.84083503724999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
